--- a/Formulars/TaxPro/Manitoba/iOS app (excel formula) - MB.xlsx
+++ b/Formulars/TaxPro/Manitoba/iOS app (excel formula) - MB.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William.Chong\Desktop\Will\Letter\TaxPro\Base Formula - 2016 for 2017\Manitoba\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9132" activeTab="4"/>
+    <workbookView xWindow="1660" yWindow="340" windowWidth="24060" windowHeight="12400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RRSP (Deduction)" sheetId="1" r:id="rId1"/>
@@ -18,8 +13,11 @@
     <sheet name="Foreign Investment Inc" sheetId="24" r:id="rId4"/>
     <sheet name="Old Age Security Pension" sheetId="27" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -514,7 +512,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,7 +703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,7 +738,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,7 +915,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -927,24 +925,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D33"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
@@ -960,7 +958,7 @@
       <c r="M1" s="46"/>
       <c r="N1" s="46"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -975,7 +973,7 @@
       <c r="M2" s="46"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -990,7 +988,7 @@
       <c r="M3" s="46"/>
       <c r="N3" s="46"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1006,7 @@
       <c r="M4" s="46"/>
       <c r="N4" s="46"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
@@ -1020,7 +1018,7 @@
       <c r="M5" s="46"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
@@ -1038,7 +1036,7 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1057,7 @@
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1081,7 @@
       <c r="S8" s="51"/>
       <c r="T8" s="51"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="E9" s="46"/>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
@@ -1101,37 +1099,37 @@
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="H11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>14000</v>
+        <v>1400</v>
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="D13" s="4"/>
       <c r="H13" s="80"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="D14" s="4"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="21"/>
       <c r="B18" s="91" t="s">
         <v>21</v>
@@ -1145,7 +1143,7 @@
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="21" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1163,7 @@
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" s="21" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1184,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" s="21" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1205,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="21" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1226,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="21"/>
       <c r="B23" s="27">
         <f>C22</f>
@@ -1245,7 +1243,7 @@
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="91" t="s">
@@ -1259,12 +1257,12 @@
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="27">
-        <v>11327</v>
+        <v>11474</v>
       </c>
       <c r="C25" s="27">
         <v>11474</v>
@@ -1277,7 +1275,7 @@
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -1289,7 +1287,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="91" t="s">
         <v>11</v>
       </c>
@@ -1303,7 +1301,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="32" t="s">
         <v>95</v>
       </c>
@@ -1319,7 +1317,7 @@
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="21" t="s">
         <v>9</v>
       </c>
@@ -1339,7 +1337,7 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="21" t="s">
         <v>10</v>
       </c>
@@ -1360,7 +1358,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="21" t="s">
         <v>10</v>
       </c>
@@ -1379,7 +1377,7 @@
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="91"/>
@@ -1391,7 +1389,7 @@
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15">
       <c r="A33" s="21" t="s">
         <v>35</v>
       </c>
@@ -1410,7 +1408,7 @@
       <c r="L33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" s="21"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -1424,7 +1422,7 @@
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35" s="91" t="s">
         <v>100</v>
       </c>
@@ -1438,7 +1436,7 @@
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36" s="91"/>
       <c r="B36" s="51" t="s">
         <v>102</v>
@@ -1454,7 +1452,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>27</v>
@@ -1464,19 +1462,19 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="4">
         <f>$B$12</f>
-        <v>14000</v>
+        <v>1400</v>
       </c>
       <c r="C38" s="4">
         <f>$B$12-$B$4</f>
-        <v>13000</v>
+        <v>400</v>
       </c>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39" s="28" t="s">
         <v>105</v>
       </c>
@@ -1490,21 +1488,21 @@
       <c r="F39" s="43"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" s="3"/>
       <c r="B40" s="4">
         <f>IF((SUM(B38:B39))&lt;=0,0,SUM(B38:B39))</f>
-        <v>14000</v>
+        <v>1400</v>
       </c>
       <c r="C40" s="4">
         <f>IF((SUM(C38:C39))&lt;=0,0,SUM(C38:C39))</f>
-        <v>13000</v>
+        <v>400</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="43"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41" s="3"/>
       <c r="B41" s="81">
         <v>0.01</v>
@@ -1516,21 +1514,21 @@
       <c r="F41" s="43"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42" s="3"/>
       <c r="B42" s="4">
         <f>B40*B41</f>
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4">
         <f>C40*C41</f>
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="43"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1538,7 +1536,7 @@
       <c r="F43" s="43"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44" s="28" t="s">
         <v>17</v>
       </c>
@@ -1552,37 +1550,37 @@
       <c r="F44" s="43"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14">
       <c r="A45" s="3"/>
       <c r="B45" s="82">
         <f>B42</f>
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="C45" s="82">
         <f>C42</f>
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="43"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="A46" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B46" s="4">
         <f>IF((B44-B45)&lt;=0,0,B44-B45)</f>
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="C46" s="4">
         <f>IF((C44-C45)&lt;=0,0,C44-C45)</f>
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="43"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1590,7 +1588,7 @@
       <c r="F47" s="43"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14">
       <c r="A48" s="28" t="s">
         <v>100</v>
       </c>
@@ -1603,20 +1601,20 @@
       <c r="F48" s="43"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="E49" s="13"/>
       <c r="F49" s="43"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="18"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="B51" s="11"/>
       <c r="C51" t="s">
         <v>13</v>
@@ -1625,7 +1623,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="13"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -1642,10 +1640,10 @@
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="B54" s="36">
         <f>-IF((B12&gt;=B25),IF((B12-B4)&gt;=B25,0,IF(((B12-B4)&lt;B25),((B25-(B12-B4))*D19))),IF(B12&lt;B25,B4*D19))</f>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C54" t="s">
         <v>34</v>
@@ -1656,7 +1654,7 @@
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="B55" s="12">
         <f>IF(AND(B12&gt;=B29,B12&lt;=C29),B4*D29,IF(AND(B12&gt;B30,B12&lt;=C30),IF((B12-B30)&gt;B4,B4*D30,((B12-B30)*D30)+((B4-(B12-B30))*D29)),IF(B12&gt;B31,IF((B12-B31)&gt;B4,B4*D31,IF((B12-B30)&gt;B4,(((B12-B31)*D31)+((B4-(B12-B31))*D30)),(((B12-B31)*D31))+((B31-B30)*D30)+((B4-(B12-B30))*D29))))))</f>
         <v>108</v>
@@ -1670,10 +1668,10 @@
       <c r="K55" s="50"/>
       <c r="L55" s="50"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="B56" s="38">
         <f>-IF((B12&gt;=B33),IF((B12-B4)&gt;=B33,0,IF(((B12-B4)&lt;B33),((B33-(B12-B4))*D29))),IF(B12&lt;B33,B4*D29))</f>
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="C56" t="s">
         <v>36</v>
@@ -1684,10 +1682,10 @@
       <c r="K56" s="50"/>
       <c r="L56" s="50"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="B57" s="37">
-        <f>B48</f>
-        <v>-10</v>
+        <f>-B48</f>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
         <v>101</v>
@@ -1698,13 +1696,13 @@
       <c r="K57" s="50"/>
       <c r="L57" s="50"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="14">
         <f>SUM(B53:B57)</f>
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="G58" s="50"/>
       <c r="H58" s="50"/>
@@ -1713,7 +1711,7 @@
       <c r="K58" s="50"/>
       <c r="L58" s="50"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="G59" s="50"/>
       <c r="H59" s="50"/>
       <c r="I59" s="50"/>
@@ -1721,7 +1719,7 @@
       <c r="K59" s="50"/>
       <c r="L59" s="50"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="G60" s="50"/>
       <c r="H60" s="50"/>
       <c r="I60" s="50"/>
@@ -1729,7 +1727,7 @@
       <c r="K60" s="50"/>
       <c r="L60" s="50"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="G61" s="50"/>
       <c r="H61" s="50"/>
       <c r="I61" s="50"/>
@@ -1737,7 +1735,7 @@
       <c r="K61" s="50"/>
       <c r="L61" s="50"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="G62" s="50"/>
       <c r="H62" s="50"/>
       <c r="I62" s="50"/>
@@ -1745,7 +1743,7 @@
       <c r="K62" s="50"/>
       <c r="L62" s="50"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="19" t="s">
         <v>39</v>
       </c>
@@ -1757,40 +1755,40 @@
       <c r="K63" s="50"/>
       <c r="L63" s="50"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>116</v>
       </c>
       <c r="B64" s="38">
         <f>SUM(B53:B54)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>118</v>
       </c>
       <c r="B65" s="38">
         <f>SUM(B55:B56)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>119</v>
       </c>
       <c r="B66" s="37">
         <f>B57</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="B67" s="38">
         <f>SUM(B64:B66)</f>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="3"/>
     </row>
   </sheetData>
@@ -1800,7 +1798,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1808,34 +1811,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1852,7 +1855,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1869,7 +1872,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1889,7 +1892,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="12"/>
@@ -1903,7 +1906,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -1917,7 +1920,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1934,7 +1937,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1954,7 +1957,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -1968,7 +1971,7 @@
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="E10" s="21"/>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
@@ -1982,7 +1985,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -1996,7 +1999,7 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2004,12 +2007,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2018,7 +2021,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="B17" s="91" t="s">
         <v>21</v>
       </c>
@@ -2029,7 +2032,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2053,7 +2056,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2078,7 +2081,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2106,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2128,7 +2131,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15">
       <c r="B22" s="27">
         <f>C21</f>
         <v>200000</v>
@@ -2147,7 +2150,7 @@
       <c r="L22" s="5"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="B23" s="21"/>
       <c r="C23" s="91" t="s">
         <v>21</v>
@@ -2158,12 +2161,12 @@
       <c r="G23" s="21"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="27">
-        <v>11327</v>
+        <v>11474</v>
       </c>
       <c r="C24" s="27">
         <v>11474</v>
@@ -2174,7 +2177,7 @@
       <c r="G24" s="51"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -2184,7 +2187,7 @@
       <c r="H25" s="12"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
@@ -2196,7 +2199,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="10" t="s">
         <v>95</v>
       </c>
@@ -2213,7 +2216,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +2236,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2256,7 +2259,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2278,7 +2281,7 @@
       <c r="L30" s="13"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="B31" s="21"/>
       <c r="C31" s="91"/>
       <c r="D31" s="21"/>
@@ -2291,7 +2294,7 @@
       <c r="K31" s="16"/>
       <c r="L31" s="26"/>
     </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2306,7 +2309,7 @@
       <c r="K32" s="16"/>
       <c r="L32" s="26"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" t="s">
@@ -2316,7 +2319,7 @@
       <c r="F33" s="43"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -2326,7 +2329,7 @@
       <c r="F34" s="43"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>102</v>
@@ -2338,7 +2341,7 @@
       <c r="F35" s="43"/>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>27</v>
@@ -2350,7 +2353,7 @@
       <c r="F36" s="43"/>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4">
         <f>$B$12</f>
@@ -2364,7 +2367,7 @@
       <c r="F37" s="43"/>
       <c r="H37" s="16"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="28" t="s">
         <v>105</v>
       </c>
@@ -2378,7 +2381,7 @@
       <c r="F38" s="43"/>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4">
         <f>IF((SUM(B37:B38))&lt;=0,0,SUM(B37:B38))</f>
@@ -2392,7 +2395,7 @@
       <c r="F39" s="43"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="3"/>
       <c r="B40" s="81">
         <v>0.01</v>
@@ -2404,7 +2407,7 @@
       <c r="F40" s="43"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="3"/>
       <c r="B41" s="4">
         <f>B39*B40</f>
@@ -2418,7 +2421,7 @@
       <c r="F41" s="43"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2426,7 +2429,7 @@
       <c r="F42" s="43"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="28" t="s">
         <v>17</v>
       </c>
@@ -2440,7 +2443,7 @@
       <c r="F43" s="43"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="3"/>
       <c r="B44" s="82">
         <f>B41</f>
@@ -2454,7 +2457,7 @@
       <c r="F44" s="43"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="28" t="s">
         <v>104</v>
       </c>
@@ -2470,7 +2473,7 @@
       <c r="F45" s="43"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2478,7 +2481,7 @@
       <c r="F46" s="43"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="28" t="s">
         <v>100</v>
       </c>
@@ -2491,7 +2494,7 @@
       <c r="F47" s="43"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="28"/>
       <c r="B48" s="83"/>
       <c r="C48" s="4"/>
@@ -2499,7 +2502,7 @@
       <c r="F48" s="43"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -2509,7 +2512,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="B50" s="11"/>
       <c r="C50" t="s">
         <v>13</v>
@@ -2519,14 +2522,14 @@
       <c r="K50" s="4"/>
       <c r="L50" s="16"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="H51" s="35"/>
       <c r="I51" s="18"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="16"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2541,7 +2544,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="16"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17">
       <c r="B53" s="36">
         <f>-IF(B12&gt;=B24,0,IF(B12&lt;B24,IF((B12+B4)&gt;B24,(B24-B12)*D18,B4*D18)))</f>
         <v>-150</v>
@@ -2553,7 +2556,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="16"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17">
       <c r="B54" s="12">
         <f>IF(AND((B4+B12)&gt;=B28,(B4+B12)&lt;=C28),B4*D28,IF(AND((B4+B12)&gt;B29,(B4+B12)&lt;=C29),IF((B4+B12-B29)&gt;B4,B4*D29,((B4+B12-B29)*D29)+((B4-(B4+B12-B29))*D28)),IF((B4+B12)&gt;B30,IF((B4+B12-B30)&gt;B4,B4*D30,IF((B4+B12-B29)&gt;B4,(((B4+B12-B30)*D30)+((B4-(B4+B12-B30))*D29)),((B4+B12-B30)*D30)+((C29-B29)*D29)+((B4-(B4+B12-B29))*D28))))))</f>
         <v>108</v>
@@ -2562,7 +2565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="B55" s="38">
         <f>-IF(B12&gt;=B32,0,IF(B12&lt;B32,IF((B12+B4)&gt;B32,(B32-B12)*D28,B4*D28)))</f>
         <v>-108</v>
@@ -2571,7 +2574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="B56" s="37">
         <f>B47</f>
         <v>10</v>
@@ -2580,7 +2583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="A57" s="10" t="s">
         <v>22</v>
       </c>
@@ -2597,7 +2600,7 @@
       <c r="L57" s="47"/>
       <c r="M57" s="46"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17">
       <c r="E58" s="18"/>
       <c r="F58" s="48"/>
       <c r="G58" s="46"/>
@@ -2609,7 +2612,7 @@
       <c r="M58" s="46"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17">
       <c r="B59" s="13"/>
       <c r="F59" s="46"/>
       <c r="G59" s="46"/>
@@ -2620,7 +2623,7 @@
       <c r="L59" s="46"/>
       <c r="M59" s="46"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17">
       <c r="A60" s="19"/>
       <c r="B60" s="13"/>
       <c r="F60" s="46"/>
@@ -2632,7 +2635,7 @@
       <c r="L60" s="46"/>
       <c r="M60" s="46"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17">
       <c r="B61" s="13"/>
       <c r="F61" s="46"/>
       <c r="G61" s="46"/>
@@ -2643,7 +2646,7 @@
       <c r="L61" s="46"/>
       <c r="M61" s="46"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17">
       <c r="A62" s="19" t="s">
         <v>39</v>
       </c>
@@ -2657,7 +2660,7 @@
       <c r="L62" s="46"/>
       <c r="M62" s="46"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -2674,7 +2677,7 @@
       <c r="L63" s="46"/>
       <c r="M63" s="46"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>120</v>
       </c>
@@ -2691,7 +2694,7 @@
       <c r="L64" s="46"/>
       <c r="M64" s="46"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -2708,7 +2711,7 @@
       <c r="L65" s="46"/>
       <c r="M65" s="46"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="B66" s="38">
         <f>SUM(B63:B65)</f>
         <v>10</v>
@@ -2722,7 +2725,7 @@
       <c r="L66" s="46"/>
       <c r="M66" s="46"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="B67" s="13"/>
       <c r="F67" s="46"/>
       <c r="G67" s="46"/>
@@ -2733,7 +2736,7 @@
       <c r="L67" s="46"/>
       <c r="M67" s="46"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="B68" s="15"/>
       <c r="F68" s="46"/>
       <c r="G68" s="46"/>
@@ -2744,7 +2747,7 @@
       <c r="L68" s="46"/>
       <c r="M68" s="46"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="F69" s="46"/>
       <c r="G69" s="46"/>
       <c r="H69" s="45"/>
@@ -2754,7 +2757,7 @@
       <c r="L69" s="46"/>
       <c r="M69" s="46"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="F70" s="46"/>
       <c r="G70" s="46"/>
       <c r="H70" s="45"/>
@@ -2764,7 +2767,7 @@
       <c r="L70" s="46"/>
       <c r="M70" s="46"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="F71" s="46"/>
       <c r="G71" s="46"/>
       <c r="H71" s="45"/>
@@ -2774,16 +2777,21 @@
       <c r="L71" s="46"/>
       <c r="M71" s="46"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="H72" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="H74" s="39"/>
       <c r="M74" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2791,28 +2799,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="B21:D36"/>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
@@ -2827,7 +2835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2841,7 +2849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -2853,7 +2861,7 @@
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="E4" t="s">
         <v>58</v>
       </c>
@@ -2868,7 +2876,7 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2889,7 +2897,7 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28">
       <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
@@ -2908,7 +2916,7 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="28" t="s">
         <v>41</v>
       </c>
@@ -2925,7 +2933,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="28"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -2938,7 +2946,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="30" t="s">
         <v>62</v>
       </c>
@@ -2954,7 +2962,7 @@
       <c r="M9" s="46"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="28" t="s">
         <v>60</v>
       </c>
@@ -2973,7 +2981,7 @@
       <c r="M10" s="78"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="28" t="s">
         <v>61</v>
       </c>
@@ -2992,7 +3000,7 @@
       <c r="M11" s="78"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="21" customFormat="1">
       <c r="A12" s="56"/>
       <c r="B12"/>
       <c r="D12" s="46"/>
@@ -3006,7 +3014,7 @@
       <c r="L12" s="78"/>
       <c r="M12" s="78"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3022,7 +3030,7 @@
       <c r="M13" s="46"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3041,7 +3049,7 @@
       <c r="M14" s="46"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
@@ -3054,7 +3062,7 @@
       <c r="M15" s="46"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="76"/>
@@ -3067,7 +3075,7 @@
       <c r="M16" s="46"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
@@ -3080,7 +3088,7 @@
       <c r="M17" s="46"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3091,12 +3099,12 @@
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -3106,7 +3114,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="B21" s="91" t="s">
         <v>21</v>
       </c>
@@ -3118,7 +3126,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3138,7 +3146,7 @@
       <c r="I22" s="21"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -3159,7 +3167,7 @@
       <c r="I23" s="21"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3180,7 +3188,7 @@
       <c r="I24" s="21"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -3201,7 +3209,7 @@
       <c r="I25" s="21"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15">
       <c r="B26" s="27">
         <f>C25</f>
         <v>200000</v>
@@ -3217,7 +3225,7 @@
       <c r="I26" s="21"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="B27" s="21"/>
       <c r="C27" s="91" t="s">
         <v>21</v>
@@ -3229,12 +3237,12 @@
       <c r="H27" s="12"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="27">
-        <v>11327</v>
+        <v>11474</v>
       </c>
       <c r="C28" s="27">
         <v>11474</v>
@@ -3246,7 +3254,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -3256,7 +3264,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -3269,7 +3277,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="10" t="s">
         <v>95</v>
       </c>
@@ -3286,7 +3294,7 @@
       <c r="J31" s="32"/>
       <c r="K31" s="69"/>
     </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3307,7 +3315,7 @@
       <c r="J32" s="65"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -3330,7 +3338,7 @@
       <c r="K33" s="52"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -3352,7 +3360,7 @@
       <c r="L34" s="13"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="B35" s="21"/>
       <c r="C35" s="91"/>
       <c r="D35" s="21"/>
@@ -3365,7 +3373,7 @@
       <c r="K35" s="20"/>
       <c r="L35" s="26"/>
     </row>
-    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3380,7 +3388,7 @@
       <c r="K36" s="20"/>
       <c r="L36" s="26"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" t="s">
@@ -3393,7 +3401,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="3" t="s">
         <v>100</v>
       </c>
@@ -3403,7 +3411,7 @@
       <c r="F38" s="43"/>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>102</v>
@@ -3415,7 +3423,7 @@
       <c r="F39" s="43"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>27</v>
@@ -3427,7 +3435,7 @@
       <c r="F40" s="43"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41" s="3"/>
       <c r="B41" s="4">
         <f>$B$18</f>
@@ -3441,7 +3449,7 @@
       <c r="F41" s="43"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42" s="28" t="s">
         <v>105</v>
       </c>
@@ -3455,7 +3463,7 @@
       <c r="F42" s="43"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="A43" s="3"/>
       <c r="B43" s="4">
         <f>IF((SUM(B41:B42))&lt;=0,0,SUM(B41:B42))</f>
@@ -3469,7 +3477,7 @@
       <c r="F43" s="43"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44" s="3"/>
       <c r="B44" s="81">
         <v>0.01</v>
@@ -3481,7 +3489,7 @@
       <c r="F44" s="43"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14">
       <c r="A45" s="3"/>
       <c r="B45" s="4">
         <f>B43*B44</f>
@@ -3495,7 +3503,7 @@
       <c r="F45" s="43"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3503,7 +3511,7 @@
       <c r="F46" s="43"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47" s="28" t="s">
         <v>17</v>
       </c>
@@ -3517,7 +3525,7 @@
       <c r="F47" s="43"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14">
       <c r="A48" s="3"/>
       <c r="B48" s="82">
         <f>B45</f>
@@ -3531,7 +3539,7 @@
       <c r="F48" s="43"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="A49" s="28" t="s">
         <v>104</v>
       </c>
@@ -3547,7 +3555,7 @@
       <c r="F49" s="43"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3555,7 +3563,7 @@
       <c r="F50" s="43"/>
       <c r="H50" s="16"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="A51" s="28" t="s">
         <v>100</v>
       </c>
@@ -3568,7 +3576,7 @@
       <c r="F51" s="43"/>
       <c r="H51" s="16"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="21"/>
@@ -3579,7 +3587,7 @@
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="21"/>
@@ -3590,7 +3598,7 @@
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17">
       <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
@@ -3608,7 +3616,7 @@
       <c r="K54" s="21"/>
       <c r="Q54" s="18"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="B55" s="36"/>
       <c r="C55" s="68" t="s">
         <v>89</v>
@@ -3631,7 +3639,7 @@
       </c>
       <c r="Q55" s="18"/>
     </row>
-    <row r="56" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="15">
       <c r="A56" s="28" t="s">
         <v>90</v>
       </c>
@@ -3663,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="15">
       <c r="A57" s="28" t="s">
         <v>44</v>
       </c>
@@ -3697,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="15">
       <c r="A58" s="28" t="s">
         <v>43</v>
       </c>
@@ -3729,7 +3737,7 @@
         <v>20814</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="15">
       <c r="A59" s="28" t="s">
         <v>45</v>
       </c>
@@ -3749,7 +3757,7 @@
         <v>20814</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="15">
       <c r="A60" s="28" t="s">
         <v>46</v>
       </c>
@@ -3776,7 +3784,7 @@
         <v>986.47199999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17">
       <c r="B61" s="18">
         <f>SUM(B58:B60)</f>
         <v>2000</v>
@@ -3792,7 +3800,7 @@
         <v>19827.527999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17">
       <c r="B62" s="18"/>
       <c r="D62" s="21"/>
       <c r="F62" s="13"/>
@@ -3807,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17">
       <c r="A63" s="19" t="s">
         <v>40</v>
       </c>
@@ -3825,7 +3833,7 @@
       </c>
       <c r="Q63" s="18"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -3850,7 +3858,7 @@
       </c>
       <c r="Q64" s="18"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -3871,7 +3879,7 @@
       </c>
       <c r="Q65" s="18"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17">
       <c r="B66" s="36">
         <f ca="1">SUM(B64:B65)</f>
         <v>0</v>
@@ -3881,14 +3889,14 @@
       <c r="E66" s="13"/>
       <c r="Q66" s="18"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17">
       <c r="B67" s="36"/>
       <c r="C67" s="4"/>
       <c r="D67" s="21"/>
       <c r="E67" s="13"/>
       <c r="Q67" s="18"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17">
       <c r="A68" s="19" t="s">
         <v>97</v>
       </c>
@@ -3904,7 +3912,7 @@
       <c r="K68" s="21"/>
       <c r="Q68" s="18"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -3921,7 +3929,7 @@
       <c r="K69" s="21"/>
       <c r="Q69" s="18"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -3938,7 +3946,7 @@
       <c r="K70" s="21"/>
       <c r="Q70" s="18"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17">
       <c r="B71" s="36">
         <f ca="1">SUM(B69:B70)</f>
         <v>0</v>
@@ -3950,7 +3958,7 @@
       <c r="K71" s="21"/>
       <c r="Q71" s="18"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17">
       <c r="B72" s="36"/>
       <c r="C72" s="4"/>
       <c r="I72" s="46"/>
@@ -3958,7 +3966,7 @@
       <c r="K72" s="21"/>
       <c r="Q72" s="18"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17">
       <c r="A73" s="3" t="s">
         <v>53</v>
       </c>
@@ -3969,7 +3977,7 @@
       <c r="K73" s="21"/>
       <c r="Q73" s="18"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17">
       <c r="B74" s="36"/>
       <c r="C74" s="4"/>
       <c r="I74" s="46"/>
@@ -3977,7 +3985,7 @@
       <c r="K74" s="21"/>
       <c r="Q74" s="18"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17">
       <c r="A75" s="19" t="s">
         <v>54</v>
       </c>
@@ -3989,7 +3997,7 @@
       <c r="K75" s="21"/>
       <c r="Q75" s="18"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4018,7 +4026,7 @@
       <c r="K76" s="21"/>
       <c r="Q76" s="18"/>
     </row>
-    <row r="77" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="15">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4057,7 +4065,7 @@
       <c r="K77" s="21"/>
       <c r="Q77" s="18"/>
     </row>
-    <row r="78" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="15">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4096,7 +4104,7 @@
       <c r="K78" s="21"/>
       <c r="Q78" s="18"/>
     </row>
-    <row r="79" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="15">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -4135,7 +4143,7 @@
       <c r="K79" s="21"/>
       <c r="Q79" s="18"/>
     </row>
-    <row r="80" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="15">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -4176,7 +4184,7 @@
       <c r="K80" s="21"/>
       <c r="Q80" s="18"/>
     </row>
-    <row r="81" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="15">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -4210,7 +4218,7 @@
       <c r="K81" s="21"/>
       <c r="Q81" s="18"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="B82" s="36"/>
       <c r="C82" s="4"/>
       <c r="E82" s="13"/>
@@ -4225,7 +4233,7 @@
       <c r="K82" s="21"/>
       <c r="Q82" s="18"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -4241,7 +4249,7 @@
       </c>
       <c r="H83" s="13">
         <f>B28</f>
-        <v>11327</v>
+        <v>11474</v>
       </c>
       <c r="I83" s="76">
         <f>D22</f>
@@ -4249,12 +4257,12 @@
       </c>
       <c r="J83" s="53">
         <f ca="1">IF(($B$5+$B$18+B80)&lt;H83,($B$5+$B$18+B80)*I83,H83*I83)</f>
-        <v>1699.05</v>
+        <v>1721.1</v>
       </c>
       <c r="K83" s="21"/>
       <c r="Q83" s="18"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>76</v>
       </c>
@@ -4267,12 +4275,12 @@
       <c r="I84" s="46"/>
       <c r="J84" s="13">
         <f ca="1">IF((J82-J83)&lt;=0,0,J82-J83)</f>
-        <v>27507.834999999999</v>
+        <v>27485.785</v>
       </c>
       <c r="K84" s="21"/>
       <c r="Q84" s="18"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -4287,7 +4295,7 @@
       <c r="K85" s="21"/>
       <c r="Q85" s="18"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -4305,7 +4313,7 @@
       <c r="K86" s="21"/>
       <c r="Q86" s="18"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>77</v>
       </c>
@@ -4321,7 +4329,7 @@
       <c r="K87" s="21"/>
       <c r="Q87" s="18"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17">
       <c r="B88" s="36"/>
       <c r="C88" s="4"/>
       <c r="I88" s="46"/>
@@ -4329,7 +4337,7 @@
       <c r="K88" s="21"/>
       <c r="Q88" s="18"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>57</v>
       </c>
@@ -4343,7 +4351,7 @@
       <c r="K89" s="21"/>
       <c r="Q89" s="18"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17">
       <c r="B90" s="36"/>
       <c r="C90" s="4"/>
       <c r="I90" s="46"/>
@@ -4351,13 +4359,13 @@
       <c r="K90" s="21"/>
       <c r="Q90" s="18"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>55</v>
       </c>
       <c r="B91" s="36">
         <f ca="1">J84</f>
-        <v>27507.834999999999</v>
+        <v>27485.785</v>
       </c>
       <c r="C91" s="4"/>
       <c r="I91" s="46"/>
@@ -4365,7 +4373,7 @@
       <c r="K91" s="21"/>
       <c r="Q91" s="18"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17">
       <c r="B92" s="36"/>
       <c r="C92" s="4"/>
       <c r="E92" s="64"/>
@@ -4377,13 +4385,13 @@
       <c r="K92" s="21"/>
       <c r="Q92" s="18"/>
     </row>
-    <row r="93" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" ht="15">
       <c r="A93" t="s">
         <v>67</v>
       </c>
       <c r="B93" s="36">
         <f ca="1">B91*B89</f>
-        <v>390.18205673758865</v>
+        <v>389.86929078014185</v>
       </c>
       <c r="C93" s="59" t="s">
         <v>31</v>
@@ -4396,7 +4404,7 @@
       <c r="K93" s="21"/>
       <c r="Q93" s="18"/>
     </row>
-    <row r="94" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="15">
       <c r="A94" t="s">
         <v>68</v>
       </c>
@@ -4415,7 +4423,7 @@
       <c r="K94" s="21"/>
       <c r="Q94" s="18"/>
     </row>
-    <row r="95" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="15">
       <c r="B95" s="36"/>
       <c r="C95" s="4"/>
       <c r="E95" s="5"/>
@@ -4426,7 +4434,7 @@
       <c r="K95" s="21"/>
       <c r="Q95" s="18"/>
     </row>
-    <row r="96" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="15">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -4445,7 +4453,7 @@
       <c r="K96" s="21"/>
       <c r="Q96" s="18"/>
     </row>
-    <row r="97" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="15">
       <c r="B97" s="61"/>
       <c r="C97" s="4"/>
       <c r="E97" s="5"/>
@@ -4457,7 +4465,7 @@
       <c r="K97" s="21"/>
       <c r="Q97" s="18"/>
     </row>
-    <row r="98" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="15">
       <c r="B98" s="61"/>
       <c r="C98" s="4"/>
       <c r="E98" s="13"/>
@@ -4469,7 +4477,7 @@
       <c r="K98" s="21"/>
       <c r="Q98" s="18"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17">
       <c r="A99" s="19" t="s">
         <v>70</v>
       </c>
@@ -4482,7 +4490,7 @@
       <c r="L99" s="19"/>
       <c r="Q99" s="18"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>56</v>
       </c>
@@ -4509,7 +4517,7 @@
       <c r="K100" s="52"/>
       <c r="Q100" s="18"/>
     </row>
-    <row r="101" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="15">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -4546,7 +4554,7 @@
       <c r="K101" s="21"/>
       <c r="Q101" s="18"/>
     </row>
-    <row r="102" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="15">
       <c r="A102" t="s">
         <v>57</v>
       </c>
@@ -4585,7 +4593,7 @@
       <c r="K102" s="21"/>
       <c r="Q102" s="18"/>
     </row>
-    <row r="103" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="15">
       <c r="B103" s="36"/>
       <c r="C103" s="4"/>
       <c r="D103" t="s">
@@ -4615,7 +4623,7 @@
       <c r="K103" s="21"/>
       <c r="Q103" s="18"/>
     </row>
-    <row r="104" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="15">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -4636,7 +4644,7 @@
       <c r="K104" s="21"/>
       <c r="Q104" s="18"/>
     </row>
-    <row r="105" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="15">
       <c r="B105" s="36"/>
       <c r="C105" s="4"/>
       <c r="E105" s="5"/>
@@ -4659,7 +4667,7 @@
       <c r="K105" s="21"/>
       <c r="Q105" s="18"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>67</v>
       </c>
@@ -4682,14 +4690,14 @@
       <c r="K106" s="21"/>
       <c r="Q106" s="18"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17">
       <c r="B107" s="36"/>
       <c r="C107" s="59"/>
       <c r="E107" s="13"/>
       <c r="K107" s="21"/>
       <c r="Q107" s="18"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>68</v>
       </c>
@@ -4700,7 +4708,7 @@
       <c r="E108" s="35"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>78</v>
       </c>
@@ -4716,7 +4724,7 @@
       <c r="J109" s="48"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17">
       <c r="B110" s="36">
         <f ca="1">SUM(B108:B109)</f>
         <v>0</v>
@@ -4730,7 +4738,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17">
       <c r="B111" s="36"/>
       <c r="C111" s="4"/>
       <c r="H111" s="18"/>
@@ -4739,7 +4747,7 @@
       <c r="K111" s="51"/>
       <c r="L111" s="16"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -4755,7 +4763,7 @@
       <c r="K112" s="51"/>
       <c r="L112" s="16"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="B113" s="36"/>
       <c r="C113" s="4"/>
       <c r="I113" s="46"/>
@@ -4763,7 +4771,7 @@
       <c r="K113" s="51"/>
       <c r="L113" s="16"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -4781,7 +4789,7 @@
       <c r="K114" s="51"/>
       <c r="L114" s="16"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="B115" s="36"/>
       <c r="C115" s="4"/>
       <c r="G115" s="18"/>
@@ -4791,7 +4799,7 @@
       <c r="K115" s="51"/>
       <c r="L115" s="16"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13">
       <c r="A116" s="2" t="s">
         <v>12</v>
       </c>
@@ -4802,7 +4810,7 @@
       <c r="K116" s="47"/>
       <c r="L116" s="16"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="B117" s="11"/>
       <c r="C117" t="s">
         <v>13</v>
@@ -4814,7 +4822,7 @@
       <c r="K117" s="47"/>
       <c r="L117" s="16"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="B118" s="36"/>
       <c r="C118" s="4"/>
       <c r="H118" s="45"/>
@@ -4823,7 +4831,7 @@
       <c r="K118" s="46"/>
       <c r="L118" s="16"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -4841,7 +4849,7 @@
       <c r="K119" s="46"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="B120" s="36">
         <f>-IF(B18&gt;=B28,0,IF(B18&lt;B28,IF((B18+B5+B80)&gt;B28,(B28-B18)*D22,((B5+B80)*D22))))</f>
         <v>0</v>
@@ -4856,7 +4864,7 @@
       <c r="K120" s="47"/>
       <c r="L120" s="16"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="B121" s="36">
         <f ca="1">-B66</f>
         <v>0</v>
@@ -4871,7 +4879,7 @@
       <c r="K121" s="51"/>
       <c r="L121" s="16"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="B122" s="36">
         <f ca="1">IF(B96=0,0,-MIN(B96,SUM(B119:B121)))</f>
         <v>-200</v>
@@ -4886,7 +4894,7 @@
       <c r="K122" s="51"/>
       <c r="L122" s="16"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13">
       <c r="B123" s="36">
         <f ca="1">IF(AND((B5+B80+B18)&gt;=B32,(B5+B80+B18)&lt;=C32),(B5+B80)*D32,IF(AND((B5+B80+B18)&gt;B33,(B5+B80+B18)&lt;=C33),IF((B5+B80+B18-B33)&gt;(B5+B80),(B5+B80)*D33,((B5+B80+B18-B33)*D33)+((B5+B80-(B5+B80+B18-B33))*D32)),IF((B5+B80+B18)&gt;B34,IF((B5+B80+B18-B34)&gt;(B5+B80),(B5+B80)*D34,IF((B5+B80+B18-B33)&gt;(B5+B80),(((B5+B80+B18-B34)*D34)+((B5+B80-(B5+B80+B18-B34))*D33)),((B5+B80+B18-B34)*D34)+((C33-B33)*D33)+((B5+B80-(B5+B80+B18-B33))*D32))))))</f>
         <v>348</v>
@@ -4900,7 +4908,7 @@
       <c r="J123" s="52"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="B124" s="36">
         <f>-IF(B18&gt;=B36,0,IF(B18&lt;B36,IF((B18+B5+B80)&gt;B36,(B36-B18)*D32,((B5+B80)*D32))))</f>
         <v>0</v>
@@ -4915,7 +4923,7 @@
       <c r="K124" s="51"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="B125" s="36">
         <f ca="1">-B71</f>
         <v>0</v>
@@ -4929,7 +4937,7 @@
       <c r="J125" s="21"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="B126" s="38">
         <f ca="1">IF(B112=0,0,-MIN(B112,SUM(B123,B124,B125)))</f>
         <v>0</v>
@@ -4944,7 +4952,7 @@
       <c r="K126" s="21"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="B127" s="37">
         <f>B51</f>
         <v>0</v>
@@ -4959,7 +4967,7 @@
       <c r="K127" s="21"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128" s="10" t="s">
         <v>22</v>
       </c>
@@ -4974,7 +4982,7 @@
       <c r="L128" s="47"/>
       <c r="M128" s="46"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17">
       <c r="E129" s="18"/>
       <c r="F129" s="48"/>
       <c r="K129" s="46"/>
@@ -4982,14 +4990,14 @@
       <c r="M129" s="46"/>
       <c r="Q129" s="15"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17">
       <c r="B130" s="13"/>
       <c r="F130" s="46"/>
       <c r="K130" s="46"/>
       <c r="L130" s="46"/>
       <c r="M130" s="46"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17">
       <c r="A131" s="19" t="s">
         <v>39</v>
       </c>
@@ -4999,7 +5007,7 @@
       <c r="L131" s="46"/>
       <c r="M131" s="46"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17">
       <c r="A132" t="s">
         <v>117</v>
       </c>
@@ -5012,7 +5020,7 @@
       <c r="L132" s="46"/>
       <c r="M132" s="46"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17">
       <c r="A133" t="s">
         <v>120</v>
       </c>
@@ -5025,7 +5033,7 @@
       <c r="L133" s="46"/>
       <c r="M133" s="46"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17">
       <c r="A134" t="s">
         <v>121</v>
       </c>
@@ -5038,7 +5046,7 @@
       <c r="L134" s="46"/>
       <c r="M134" s="46"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17">
       <c r="B135" s="36">
         <f ca="1">SUM(B132:B134)</f>
         <v>686.36</v>
@@ -5048,14 +5056,14 @@
       <c r="L135" s="46"/>
       <c r="M135" s="46"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17">
       <c r="B136" s="13"/>
       <c r="F136" s="46"/>
       <c r="K136" s="46"/>
       <c r="L136" s="46"/>
       <c r="M136" s="46"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17">
       <c r="B137" s="15"/>
       <c r="F137" s="46"/>
       <c r="K137" s="48"/>
@@ -5063,19 +5071,19 @@
       <c r="M137" s="48"/>
       <c r="N137" s="18"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17">
       <c r="F138" s="46"/>
       <c r="K138" s="46"/>
       <c r="L138" s="46"/>
       <c r="M138" s="46"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17">
       <c r="F139" s="46"/>
       <c r="K139" s="46"/>
       <c r="L139" s="46"/>
       <c r="M139" s="46"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17">
       <c r="F140" s="46"/>
       <c r="G140" s="46"/>
       <c r="H140" s="45"/>
@@ -5085,10 +5093,10 @@
       <c r="L140" s="46"/>
       <c r="M140" s="46"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17">
       <c r="H141" s="12"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17">
       <c r="H143" s="39"/>
       <c r="M143" s="22"/>
     </row>
@@ -5108,7 +5116,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5116,28 +5129,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D32"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
@@ -5152,7 +5165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5166,7 +5179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>92</v>
       </c>
@@ -5178,7 +5191,7 @@
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="E4" t="s">
         <v>58</v>
       </c>
@@ -5193,7 +5206,7 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -5214,7 +5227,7 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="28" t="s">
         <v>60</v>
       </c>
@@ -5233,7 +5246,7 @@
       <c r="M6" s="78"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="28" t="s">
         <v>61</v>
       </c>
@@ -5252,7 +5265,7 @@
       <c r="M7" s="78"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="21" customFormat="1">
       <c r="A8" s="56"/>
       <c r="B8"/>
       <c r="D8" s="46"/>
@@ -5266,7 +5279,7 @@
       <c r="L8" s="78"/>
       <c r="M8" s="78"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -5282,7 +5295,7 @@
       <c r="M9" s="46"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -5301,7 +5314,7 @@
       <c r="M10" s="46"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
@@ -5314,7 +5327,7 @@
       <c r="M11" s="46"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
       <c r="F12" s="76"/>
@@ -5327,7 +5340,7 @@
       <c r="M12" s="46"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
@@ -5340,18 +5353,18 @@
       <c r="M13" s="46"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>139000</v>
+        <v>13000</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -5360,7 +5373,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -5369,7 +5382,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="B17" s="91" t="s">
         <v>21</v>
       </c>
@@ -5380,7 +5393,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -5399,7 +5412,7 @@
       <c r="I18" s="21"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -5419,7 +5432,7 @@
       <c r="I19" s="21"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -5439,7 +5452,7 @@
       <c r="I20" s="21"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -5459,7 +5472,7 @@
       <c r="I21" s="21"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15">
       <c r="B22" s="27">
         <f>C21</f>
         <v>200000</v>
@@ -5474,7 +5487,7 @@
       <c r="I22" s="21"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="B23" s="21"/>
       <c r="C23" s="91" t="s">
         <v>21</v>
@@ -5485,12 +5498,12 @@
       <c r="H23" s="12"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="27">
-        <v>11327</v>
+        <v>11474</v>
       </c>
       <c r="C24" s="27">
         <v>11474</v>
@@ -5501,7 +5514,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -5510,7 +5523,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
@@ -5522,7 +5535,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="10" t="s">
         <v>94</v>
       </c>
@@ -5538,7 +5551,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="69"/>
     </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -5558,7 +5571,7 @@
       <c r="J28" s="65"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -5580,7 +5593,7 @@
       <c r="K29" s="52"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -5601,7 +5614,7 @@
       <c r="L30" s="13"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="B31" s="21"/>
       <c r="C31" s="91"/>
       <c r="D31" s="21"/>
@@ -5613,7 +5626,7 @@
       <c r="K31" s="20"/>
       <c r="L31" s="26"/>
     </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -5630,7 +5643,7 @@
       <c r="K32" s="20"/>
       <c r="L32" s="26"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" t="s">
@@ -5644,7 +5657,7 @@
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -5654,7 +5667,7 @@
       <c r="F34" s="43"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>102</v>
@@ -5666,7 +5679,7 @@
       <c r="F35" s="43"/>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>27</v>
@@ -5678,21 +5691,21 @@
       <c r="F36" s="43"/>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="3"/>
       <c r="B37" s="4">
         <f>$B$14</f>
-        <v>139000</v>
+        <v>13000</v>
       </c>
       <c r="C37" s="4">
         <f>$B$14+$B$5</f>
-        <v>141000</v>
+        <v>15000</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="43"/>
       <c r="H37" s="16"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="28" t="s">
         <v>105</v>
       </c>
@@ -5706,21 +5719,21 @@
       <c r="F38" s="43"/>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="3"/>
       <c r="B39" s="4">
         <f>IF((SUM(B37:B38))&lt;=0,0,SUM(B37:B38))</f>
-        <v>139000</v>
+        <v>13000</v>
       </c>
       <c r="C39" s="4">
         <f>IF((SUM(C37:C38))&lt;=0,0,SUM(C37:C38))</f>
-        <v>141000</v>
+        <v>15000</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="43"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="3"/>
       <c r="B40" s="81">
         <v>0.01</v>
@@ -5732,21 +5745,21 @@
       <c r="F40" s="43"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="3"/>
       <c r="B41" s="4">
         <f>B39*B40</f>
-        <v>1390</v>
+        <v>130</v>
       </c>
       <c r="C41" s="4">
         <f>C39*C40</f>
-        <v>1410</v>
+        <v>150</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="43"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -5754,7 +5767,7 @@
       <c r="F42" s="43"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" s="28" t="s">
         <v>17</v>
       </c>
@@ -5768,37 +5781,37 @@
       <c r="F43" s="43"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="3"/>
       <c r="B44" s="82">
         <f>B41</f>
-        <v>1390</v>
+        <v>130</v>
       </c>
       <c r="C44" s="82">
         <f>C41</f>
-        <v>1410</v>
+        <v>150</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="43"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B45" s="4">
         <f>IF((B43-B44)&lt;=0,0,B43-B44)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C45" s="4">
         <f>IF((C43-C44)&lt;=0,0,C43-C44)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="43"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -5806,20 +5819,20 @@
       <c r="F46" s="43"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B47" s="83">
         <f>B45-C45</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C47" s="4"/>
       <c r="E47" s="13"/>
       <c r="F47" s="43"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="E48" s="13"/>
@@ -5829,7 +5842,7 @@
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -5840,7 +5853,7 @@
       <c r="K49" s="21"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="B50" s="36"/>
       <c r="C50" s="4"/>
       <c r="I50" s="46"/>
@@ -5848,7 +5861,7 @@
       <c r="K50" s="21"/>
       <c r="Q50" s="18"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="A51" s="19" t="s">
         <v>54</v>
       </c>
@@ -5860,7 +5873,7 @@
       <c r="K51" s="21"/>
       <c r="Q51" s="18"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -5889,7 +5902,7 @@
       <c r="K52" s="21"/>
       <c r="Q52" s="18"/>
     </row>
-    <row r="53" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="15">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -5919,16 +5932,16 @@
       </c>
       <c r="I53" s="12">
         <f ca="1">IF(AND(($B$14+$B$5+$B$56)&gt;=E53,($B$14+$B$5+$B$56)&lt;F53),($B$14+$B$5+$B$56-E53)*G53,0)</f>
-        <v>0</v>
+        <v>2242.4897410890567</v>
       </c>
       <c r="J53" s="12">
         <f ca="1">(IF(I53=0,0,H53+I53))</f>
-        <v>0</v>
+        <v>2242.4897410890567</v>
       </c>
       <c r="K53" s="21"/>
       <c r="Q53" s="18"/>
     </row>
-    <row r="54" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="15">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -5967,13 +5980,13 @@
       <c r="K54" s="21"/>
       <c r="Q54" s="18"/>
     </row>
-    <row r="55" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="15">
       <c r="A55" t="s">
         <v>81</v>
       </c>
       <c r="B55" s="37">
         <f ca="1">-B90</f>
-        <v>0</v>
+        <v>-50.068432646630228</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" t="s">
@@ -6006,13 +6019,13 @@
       <c r="K55" s="21"/>
       <c r="Q55" s="18"/>
     </row>
-    <row r="56" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="15">
       <c r="A56" t="s">
         <v>83</v>
       </c>
       <c r="B56" s="37">
         <f ca="1">SUM(B54:B55)</f>
-        <v>0</v>
+        <v>-50.068432646630228</v>
       </c>
       <c r="C56" s="59" t="s">
         <v>82</v>
@@ -6038,22 +6051,22 @@
       </c>
       <c r="I56" s="12">
         <f ca="1">IF(AND(($B$14+$B$5+$B$56)&gt;=E56,($B$14+$B$5+$B$56)&lt;F56),($B$14+$B$5+$B$56-E56)*G56,0)</f>
-        <v>177.48</v>
+        <v>0</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>29206.884999999998</v>
+        <v>0</v>
       </c>
       <c r="K56" s="21"/>
       <c r="Q56" s="18"/>
     </row>
-    <row r="57" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="15">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="36">
         <f ca="1">B52+B53+B56</f>
-        <v>2000</v>
+        <v>1949.9315673533697</v>
       </c>
       <c r="C57" s="59" t="s">
         <v>84</v>
@@ -6081,7 +6094,7 @@
       <c r="K57" s="21"/>
       <c r="Q57" s="18"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17">
       <c r="B58" s="36"/>
       <c r="C58" s="4"/>
       <c r="E58" s="13"/>
@@ -6091,18 +6104,18 @@
       <c r="I58" s="46"/>
       <c r="J58" s="12">
         <f ca="1">SUM(J53:J57)</f>
-        <v>29206.884999999998</v>
+        <v>2242.4897410890567</v>
       </c>
       <c r="K58" s="21"/>
       <c r="Q58" s="18"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="38">
         <f>$B$5+$B$14</f>
-        <v>141000</v>
+        <v>15000</v>
       </c>
       <c r="C59" s="59" t="s">
         <v>31</v>
@@ -6112,19 +6125,19 @@
       </c>
       <c r="H59" s="13">
         <f>B24</f>
-        <v>11327</v>
+        <v>11474</v>
       </c>
       <c r="I59" s="76">
         <v>0.15</v>
       </c>
       <c r="J59" s="53">
         <f ca="1">IF(($B$5+$B$14+B56)&lt;H59,($B$5+$B$14+B56)*I59,H59*I59)</f>
-        <v>1699.05</v>
+        <v>1721.1</v>
       </c>
       <c r="K59" s="21"/>
       <c r="Q59" s="18"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -6137,18 +6150,18 @@
       <c r="I60" s="46"/>
       <c r="J60" s="13">
         <f ca="1">IF((J58-J59)&lt;=0,0,J58-J59)</f>
-        <v>27507.834999999999</v>
+        <v>521.38974108905677</v>
       </c>
       <c r="K60" s="21"/>
       <c r="Q60" s="18"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>81</v>
       </c>
       <c r="B61" s="37">
         <f ca="1">B55</f>
-        <v>0</v>
+        <v>-50.068432646630228</v>
       </c>
       <c r="C61" s="4"/>
       <c r="G61" s="62"/>
@@ -6157,13 +6170,13 @@
       <c r="K61" s="21"/>
       <c r="Q61" s="18"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="37">
         <f ca="1">SUM(B60:B61)</f>
-        <v>0</v>
+        <v>-50.068432646630228</v>
       </c>
       <c r="C62" s="59" t="s">
         <v>32</v>
@@ -6175,13 +6188,13 @@
       <c r="K62" s="21"/>
       <c r="Q62" s="18"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>77</v>
       </c>
       <c r="B63" s="36">
         <f ca="1">B59+B62</f>
-        <v>141000</v>
+        <v>14949.931567353369</v>
       </c>
       <c r="C63" s="59" t="s">
         <v>85</v>
@@ -6191,7 +6204,7 @@
       <c r="K63" s="21"/>
       <c r="Q63" s="18"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17">
       <c r="B64" s="36"/>
       <c r="C64" s="4"/>
       <c r="I64" s="46"/>
@@ -6199,13 +6212,13 @@
       <c r="K64" s="21"/>
       <c r="Q64" s="18"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>57</v>
       </c>
       <c r="B65" s="58">
         <f ca="1">B57/B63</f>
-        <v>1.4184397163120567E-2</v>
+        <v>0.13043080221259981</v>
       </c>
       <c r="C65" s="4"/>
       <c r="I65" s="46"/>
@@ -6213,7 +6226,7 @@
       <c r="K65" s="21"/>
       <c r="Q65" s="18"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17">
       <c r="B66" s="36"/>
       <c r="C66" s="4"/>
       <c r="I66" s="46"/>
@@ -6221,13 +6234,13 @@
       <c r="K66" s="21"/>
       <c r="Q66" s="18"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>55</v>
       </c>
       <c r="B67" s="36">
         <f ca="1">J60</f>
-        <v>27507.834999999999</v>
+        <v>521.38974108905677</v>
       </c>
       <c r="C67" s="4"/>
       <c r="I67" s="46"/>
@@ -6235,7 +6248,7 @@
       <c r="K67" s="21"/>
       <c r="Q67" s="18"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17">
       <c r="B68" s="36"/>
       <c r="C68" s="4"/>
       <c r="E68" s="64"/>
@@ -6247,13 +6260,13 @@
       <c r="K68" s="21"/>
       <c r="Q68" s="18"/>
     </row>
-    <row r="69" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="15">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="36">
         <f ca="1">B67*B65</f>
-        <v>390.18205673758865</v>
+        <v>68.005282195665387</v>
       </c>
       <c r="C69" s="59" t="s">
         <v>31</v>
@@ -6266,7 +6279,7 @@
       <c r="K69" s="21"/>
       <c r="Q69" s="18"/>
     </row>
-    <row r="70" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="15">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -6285,7 +6298,7 @@
       <c r="K70" s="21"/>
       <c r="Q70" s="18"/>
     </row>
-    <row r="71" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="15">
       <c r="B71" s="36"/>
       <c r="C71" s="4"/>
       <c r="E71" s="5"/>
@@ -6296,13 +6309,13 @@
       <c r="K71" s="21"/>
       <c r="Q71" s="18"/>
     </row>
-    <row r="72" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="15">
       <c r="A72" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="61">
         <f ca="1">MIN(B69,B70)</f>
-        <v>200</v>
+        <v>68.005282195665387</v>
       </c>
       <c r="C72" s="59" t="s">
         <v>87</v>
@@ -6315,7 +6328,7 @@
       <c r="K72" s="21"/>
       <c r="Q72" s="18"/>
     </row>
-    <row r="73" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="15">
       <c r="B73" s="61"/>
       <c r="C73" s="4"/>
       <c r="E73" s="5"/>
@@ -6327,7 +6340,7 @@
       <c r="K73" s="21"/>
       <c r="Q73" s="18"/>
     </row>
-    <row r="74" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="15">
       <c r="B74" s="61"/>
       <c r="C74" s="4"/>
       <c r="E74" s="13"/>
@@ -6339,7 +6352,7 @@
       <c r="K74" s="21"/>
       <c r="Q74" s="18"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17">
       <c r="A75" s="19" t="s">
         <v>70</v>
       </c>
@@ -6352,13 +6365,13 @@
       <c r="L75" s="19"/>
       <c r="Q75" s="18"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>56</v>
       </c>
       <c r="B76" s="36">
         <f ca="1">B57</f>
-        <v>2000</v>
+        <v>1949.9315673533697</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="19" t="s">
@@ -6379,13 +6392,13 @@
       <c r="K76" s="52"/>
       <c r="Q76" s="18"/>
     </row>
-    <row r="77" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="15">
       <c r="A77" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="38">
         <f ca="1">B63</f>
-        <v>141000</v>
+        <v>14949.931567353369</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" t="s">
@@ -6407,22 +6420,22 @@
       </c>
       <c r="I77" s="45">
         <f ca="1">IF(AND(($B$14+$B$5+$B$56)&gt;=E77,($B$14+$B$5+$B$56)&lt;F77),($B$14+$B$5+$B$56-E77)*G77,0)</f>
-        <v>0</v>
+        <v>1614.5926092741638</v>
       </c>
       <c r="J77" s="12">
         <f ca="1">(IF(I77=0,0,H77+I77))</f>
-        <v>0</v>
+        <v>1614.5926092741638</v>
       </c>
       <c r="K77" s="21"/>
       <c r="Q77" s="18"/>
     </row>
-    <row r="78" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="15">
       <c r="A78" t="s">
         <v>57</v>
       </c>
       <c r="B78" s="58">
         <f ca="1">B76/B77</f>
-        <v>1.4184397163120567E-2</v>
+        <v>0.13043080221259981</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" t="s">
@@ -6455,7 +6468,7 @@
       <c r="K78" s="21"/>
       <c r="Q78" s="18"/>
     </row>
-    <row r="79" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="15">
       <c r="B79" s="36"/>
       <c r="C79" s="4"/>
       <c r="D79" t="s">
@@ -6488,13 +6501,13 @@
       <c r="K79" s="21"/>
       <c r="Q79" s="18"/>
     </row>
-    <row r="80" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="15">
       <c r="A80" t="s">
         <v>71</v>
       </c>
       <c r="B80" s="36">
         <f ca="1">J82</f>
-        <v>0</v>
+        <v>628.12061358412097</v>
       </c>
       <c r="C80" s="4"/>
       <c r="E80" s="5"/>
@@ -6504,12 +6517,12 @@
       <c r="I80" s="46"/>
       <c r="J80" s="52">
         <f ca="1">SUM(J77:J79)</f>
-        <v>0</v>
+        <v>1614.5926092741638</v>
       </c>
       <c r="K80" s="21"/>
       <c r="Q80" s="18"/>
     </row>
-    <row r="81" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="15">
       <c r="B81" s="36"/>
       <c r="C81" s="4"/>
       <c r="E81" s="5"/>
@@ -6532,13 +6545,13 @@
       <c r="K81" s="21"/>
       <c r="Q81" s="18"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>67</v>
       </c>
       <c r="B82" s="36">
         <f ca="1">B80*B78</f>
-        <v>0</v>
+        <v>81.926275516047312</v>
       </c>
       <c r="C82" s="59" t="s">
         <v>31</v>
@@ -6550,19 +6563,19 @@
       <c r="I82" s="46"/>
       <c r="J82" s="13">
         <f ca="1">IF((J80-J81)&lt;=0,0,J80-J81)</f>
-        <v>0</v>
+        <v>628.12060927416383</v>
       </c>
       <c r="K82" s="21"/>
       <c r="Q82" s="18"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="B83" s="36"/>
       <c r="C83" s="59"/>
       <c r="E83" s="13"/>
       <c r="K83" s="21"/>
       <c r="Q83" s="18"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -6573,13 +6586,13 @@
       <c r="E84" s="35"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>78</v>
       </c>
       <c r="B85" s="37">
         <f ca="1">-B72</f>
-        <v>-200</v>
+        <v>-68.005282195665387</v>
       </c>
       <c r="C85" s="59"/>
       <c r="F85" s="38"/>
@@ -6589,10 +6602,10 @@
       <c r="J85" s="48"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="B86" s="36">
         <f ca="1">SUM(B84:B85)</f>
-        <v>0</v>
+        <v>131.99471780433461</v>
       </c>
       <c r="C86" s="59" t="s">
         <v>32</v>
@@ -6603,7 +6616,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="B87" s="36"/>
       <c r="C87" s="4"/>
       <c r="H87" s="18"/>
@@ -6612,13 +6625,13 @@
       <c r="K87" s="51"/>
       <c r="L87" s="16"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>72</v>
       </c>
       <c r="B88" s="61">
         <f ca="1">MIN(B82,B86)</f>
-        <v>0</v>
+        <v>81.926275516047312</v>
       </c>
       <c r="C88" s="59" t="s">
         <v>87</v>
@@ -6628,7 +6641,7 @@
       <c r="K88" s="51"/>
       <c r="L88" s="16"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="B89" s="36"/>
       <c r="C89" s="4"/>
       <c r="I89" s="46"/>
@@ -6636,13 +6649,13 @@
       <c r="K89" s="51"/>
       <c r="L89" s="16"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>86</v>
       </c>
       <c r="B90" s="61">
         <f ca="1">B70-B72-B88</f>
-        <v>0</v>
+        <v>50.068442288287301</v>
       </c>
       <c r="C90" s="59" t="s">
         <v>88</v>
@@ -6654,7 +6667,7 @@
       <c r="K90" s="51"/>
       <c r="L90" s="16"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17">
       <c r="B91" s="36"/>
       <c r="C91" s="4"/>
       <c r="G91" s="18"/>
@@ -6664,7 +6677,7 @@
       <c r="K91" s="51"/>
       <c r="L91" s="16"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17">
       <c r="A92" s="2" t="s">
         <v>12</v>
       </c>
@@ -6675,7 +6688,7 @@
       <c r="K92" s="47"/>
       <c r="L92" s="16"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17">
       <c r="B93" s="11"/>
       <c r="C93" t="s">
         <v>13</v>
@@ -6687,7 +6700,7 @@
       <c r="K93" s="47"/>
       <c r="L93" s="16"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17">
       <c r="B94" s="36"/>
       <c r="C94" s="4"/>
       <c r="H94" s="45"/>
@@ -6696,13 +6709,13 @@
       <c r="K94" s="46"/>
       <c r="L94" s="16"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>20</v>
       </c>
       <c r="B95" s="36">
         <f ca="1">IF(AND((B5+B56+B14)&gt;=B18,(B5+B56+B14)&lt;=C18),(B5+B56)*D18,IF(AND((B5+B56+B14)&gt;B19,(B5+B56+B14)&lt;=C19),IF((B5+B56+B14-B19)&gt;(B5+B56),(B5+B56)*D19,((B5+B56+B14-B19)*D19)+((B5+B56-(B5+B56+B14-B19))*D18)),IF(AND((B5+B56+B14)&gt;B20,(B5+B56+B14)&lt;=C20),IF((B5+B56+B14-B20)&gt;(B5+B56),(B5+B56)*D20,IF((B5+B56+B14-B19)&gt;(B5+B56),(((B5+B56+B14-B20)*D20)+((B5+B56-(B5+B56+B14-B20))*D19)),((B5+B56+B14-B20)*D20)+((C19-B19)*D19)+((B5+B56-(B5+B56+B14-B19))*D18))),IF(AND((B5+B56+B14)&gt;B21,(B5+B56+B14)&lt;=C21),IF((B5+B56+B14-B21)&gt;(B5+B56),(B5+B56)*D21,IF((B5+B56+B14-B20)&gt;(B5+B56),((B5+B56+B14-B21)*D21)+(((B5+B56-(B5+B56+B14-B21))*D20)),IF((B5+B56+B14-B19)&gt;(B5+B56),(((B5+B56+B14-B21)*D21)+((C20-B20)*D20)+((B5+B56-(B5+B56+B14-B20))*D19)),((B5+B56+B14-B21)*D21)+((C20-B20)*D20)+((C19-B19)*D19)+((B5+B56-(B5+B56+B14-B19))*D18)))),IF((B5+B56+B14)&gt;B22,IF((B5+B56+B14-B22)&gt;(B5+B56),(B5+B56)*D22,IF((B5+B56+B14-B21)&gt;(B5+B56),(((B5+B56+B14-B22)*D22)+((B5+B56-(B5+B56+B14-B22))*D21)),IF((B5+B56+B14-B20)&gt;(B5+B56),(((B5+B56+B14-B22)*D22)+((C21-B21)*D21)+((B5+B56-(B5+B56+B14-B21))*D20)),IF((B5+B56+B14-B19)&gt;(B5+B56),(((B5+B56+B14-B22)*D22)+((C21-B21)*D21)+((C20-B20)*D20)+((B5+B56-(B5+B56+B14-B20))*D19)),((B5+B56+B14-B22)*D22)+((C21-B21)*D21)+((C20-B20)*D20)+((C19-B19)*D19)+((B5+B56-(B5+B56+B14-B19))*D18))))))))))</f>
-        <v>538.36</v>
+        <v>292.48973510300544</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
@@ -6714,7 +6727,7 @@
       <c r="K95" s="46"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17">
       <c r="B96" s="36">
         <f>-IF(B14&gt;=B24,0,IF(B14&lt;B24,IF((B14+B5+B56)&gt;B24,(B24-B14)*D18,((B5+B56)*D18))))</f>
         <v>0</v>
@@ -6729,10 +6742,10 @@
       <c r="K96" s="47"/>
       <c r="L96" s="16"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17">
       <c r="B97" s="36">
         <f ca="1">IF(B72=0,0,-MIN(B72,SUM(B95:B96)))</f>
-        <v>-200</v>
+        <v>-68.005282195665387</v>
       </c>
       <c r="C97" t="s">
         <v>79</v>
@@ -6744,10 +6757,10 @@
       <c r="K97" s="51"/>
       <c r="L97" s="16"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17">
       <c r="B98" s="36">
         <f ca="1">IF(AND((B5+B56+B14)&gt;=B28,(B5+B56+B14)&lt;=C28),(B5+B56)*D28,IF(AND((B5+B56+B14)&gt;B29,(B5+B56+B14)&lt;=C29),IF((B5+B56+B14-B29)&gt;(B5+B56),(B5+B56)*D29,((B5+B56+B14-B29)*D29)+((B5+B56-(B5+B56+B14-B29))*D28)),IF((B5+B56+B14)&gt;B30,IF((B5+B56+B14-B30)&gt;(B5+B56),(B5+B56)*D30,IF((B5+B56+B14-B29)&gt;(B5+B56),(((B5+B56+B14-B30)*D30)+((B5+B56-(B5+B56+B14-B30))*D29)),((B5+B56+B14-B30)*D30)+((C29-B29)*D29)+((B5+B56-(B5+B56+B14-B29))*D28))))))</f>
-        <v>348</v>
+        <v>210.59260927416392</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
@@ -6758,7 +6771,7 @@
       <c r="J98" s="52"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17">
       <c r="B99" s="36">
         <f>-IF(B14&gt;=B32,0,IF(B14&lt;B32,IF((B14+B5+B56)&gt;B32,(B32-B14)*D28,((B5+B56)*D28))))</f>
         <v>0</v>
@@ -6773,10 +6786,10 @@
       <c r="K99" s="51"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17">
       <c r="B100" s="38">
         <f ca="1">IF(B88=0,0,-MIN(B88,SUM(B98,B99)))</f>
-        <v>0</v>
+        <v>-81.926275516047312</v>
       </c>
       <c r="C100" t="s">
         <v>80</v>
@@ -6788,10 +6801,10 @@
       <c r="K100" s="21"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17">
       <c r="B101" s="37">
         <f>B47</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
         <v>101</v>
@@ -6803,13 +6816,13 @@
       <c r="K101" s="21"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17">
       <c r="A102" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B102" s="77">
         <f ca="1">SUM(B95:B101)</f>
-        <v>686.36</v>
+        <v>373.15078666545662</v>
       </c>
       <c r="F102" s="46"/>
       <c r="I102" s="21"/>
@@ -6818,7 +6831,7 @@
       <c r="L102" s="47"/>
       <c r="M102" s="46"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17">
       <c r="E103" s="18"/>
       <c r="F103" s="48"/>
       <c r="K103" s="46"/>
@@ -6826,14 +6839,14 @@
       <c r="M103" s="46"/>
       <c r="Q103" s="15"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17">
       <c r="B104" s="13"/>
       <c r="F104" s="46"/>
       <c r="K104" s="46"/>
       <c r="L104" s="46"/>
       <c r="M104" s="46"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17">
       <c r="A105" s="19" t="s">
         <v>39</v>
       </c>
@@ -6843,77 +6856,77 @@
       <c r="L105" s="46"/>
       <c r="M105" s="46"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>117</v>
       </c>
       <c r="B106" s="36">
         <f ca="1">SUM(B95:B97)</f>
-        <v>338.36</v>
+        <v>224.48445290734006</v>
       </c>
       <c r="F106" s="46"/>
       <c r="K106" s="46"/>
       <c r="L106" s="46"/>
       <c r="M106" s="46"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
         <v>120</v>
       </c>
       <c r="B107" s="38">
         <f ca="1">SUM(B98:B100)</f>
-        <v>348</v>
+        <v>128.66633375811659</v>
       </c>
       <c r="F107" s="46"/>
       <c r="K107" s="46"/>
       <c r="L107" s="46"/>
       <c r="M107" s="46"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>121</v>
       </c>
       <c r="B108" s="37">
         <f>B101</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F108" s="46"/>
       <c r="K108" s="46"/>
       <c r="L108" s="46"/>
       <c r="M108" s="46"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17">
       <c r="B109" s="36">
         <f ca="1">SUM(B106:B108)</f>
-        <v>686.36</v>
+        <v>373.15078666545662</v>
       </c>
       <c r="F109" s="46"/>
       <c r="K109" s="46"/>
       <c r="L109" s="46"/>
       <c r="M109" s="46"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17">
       <c r="B110" s="13"/>
       <c r="F110" s="46"/>
       <c r="K110" s="46"/>
       <c r="L110" s="46"/>
       <c r="M110" s="46"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17">
       <c r="B111" s="13"/>
       <c r="F111" s="46"/>
       <c r="K111" s="46"/>
       <c r="L111" s="46"/>
       <c r="M111" s="46"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17">
       <c r="B112" s="13"/>
       <c r="F112" s="46"/>
       <c r="K112" s="46"/>
       <c r="L112" s="46"/>
       <c r="M112" s="46"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14">
       <c r="B113" s="15"/>
       <c r="F113" s="46"/>
       <c r="K113" s="48"/>
@@ -6921,19 +6934,19 @@
       <c r="M113" s="48"/>
       <c r="N113" s="18"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14">
       <c r="F114" s="46"/>
       <c r="K114" s="46"/>
       <c r="L114" s="46"/>
       <c r="M114" s="46"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14">
       <c r="F115" s="46"/>
       <c r="K115" s="46"/>
       <c r="L115" s="46"/>
       <c r="M115" s="46"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14">
       <c r="F116" s="46"/>
       <c r="G116" s="46"/>
       <c r="H116" s="45"/>
@@ -6943,10 +6956,10 @@
       <c r="L116" s="46"/>
       <c r="M116" s="46"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14">
       <c r="H117" s="12"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14">
       <c r="H119" s="39"/>
       <c r="M119" s="22"/>
     </row>
@@ -6960,7 +6973,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6968,34 +6986,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7012,7 +7030,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>107</v>
       </c>
@@ -7029,7 +7047,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -7049,7 +7067,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="12"/>
@@ -7063,7 +7081,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -7077,7 +7095,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -7094,7 +7112,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -7114,7 +7132,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -7128,7 +7146,7 @@
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="E10" s="21"/>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
@@ -7142,7 +7160,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -7156,20 +7174,20 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -7179,7 +7197,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="B17" s="91" t="s">
         <v>21</v>
       </c>
@@ -7191,7 +7209,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -7215,7 +7233,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -7240,7 +7258,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -7265,7 +7283,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7290,7 +7308,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15">
       <c r="B22" s="27">
         <f>C21</f>
         <v>200000</v>
@@ -7309,7 +7327,7 @@
       <c r="L22" s="5"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="B23" s="21"/>
       <c r="C23" s="91" t="s">
         <v>21</v>
@@ -7321,12 +7339,12 @@
       <c r="H23" s="12"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="27">
-        <v>11327</v>
+        <v>11477</v>
       </c>
       <c r="C24" s="27">
         <v>11474</v>
@@ -7338,7 +7356,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -7349,7 +7367,7 @@
       <c r="I25" s="21"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
@@ -7362,7 +7380,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="10" t="s">
         <v>95</v>
       </c>
@@ -7379,7 +7397,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -7399,7 +7417,7 @@
       <c r="I28" s="27"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7422,7 +7440,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7444,7 +7462,7 @@
       <c r="L30" s="13"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="B31" s="21"/>
       <c r="C31" s="91"/>
       <c r="D31" s="21"/>
@@ -7457,7 +7475,7 @@
       <c r="K31" s="16"/>
       <c r="L31" s="26"/>
     </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -7475,7 +7493,7 @@
       <c r="K32" s="16"/>
       <c r="L32" s="26"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" t="s">
@@ -7485,7 +7503,7 @@
       <c r="F33" s="43"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -7495,7 +7513,7 @@
       <c r="F34" s="43"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="83" t="s">
         <v>102</v>
@@ -7507,7 +7525,7 @@
       <c r="F35" s="43"/>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>27</v>
@@ -7519,21 +7537,21 @@
       <c r="F36" s="43"/>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4">
         <f>$B$12</f>
-        <v>72000</v>
+        <v>6000</v>
       </c>
       <c r="C37" s="4">
         <f>$B$12+$B$4-$B$56</f>
-        <v>72971.350000000006</v>
+        <v>7000</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="43"/>
       <c r="H37" s="16"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="28" t="s">
         <v>105</v>
       </c>
@@ -7547,21 +7565,21 @@
       <c r="F38" s="43"/>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4">
         <f>IF((SUM(B37:B38))&lt;=0,0,SUM(B37:B38))</f>
-        <v>72000</v>
+        <v>6000</v>
       </c>
       <c r="C39" s="4">
         <f>IF((SUM(C37:C38))&lt;=0,0,SUM(C37:C38))</f>
-        <v>72971.350000000006</v>
+        <v>7000</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="43"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="3"/>
       <c r="B40" s="81">
         <v>0.01</v>
@@ -7573,21 +7591,21 @@
       <c r="F40" s="43"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="3"/>
       <c r="B41" s="4">
         <f>B39*B40</f>
-        <v>720</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4">
         <f>C39*C40</f>
-        <v>729.71350000000007</v>
+        <v>70</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="43"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7595,7 +7613,7 @@
       <c r="F42" s="43"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="28" t="s">
         <v>17</v>
       </c>
@@ -7609,37 +7627,37 @@
       <c r="F43" s="43"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="3"/>
       <c r="B44" s="82">
         <f>B41</f>
-        <v>720</v>
+        <v>60</v>
       </c>
       <c r="C44" s="82">
         <f>C41</f>
-        <v>729.71350000000007</v>
+        <v>70</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="43"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B45" s="4">
         <f>IF((B43-B44)&lt;=0,0,B43-B44)</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C45" s="4">
         <f>IF((C43-C44)&lt;=0,0,C43-C44)</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="43"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7647,20 +7665,20 @@
       <c r="F46" s="43"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B47" s="83">
         <f>B45-C45</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C47" s="4"/>
       <c r="E47" s="13"/>
       <c r="F47" s="43"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="28"/>
       <c r="B48" s="83"/>
       <c r="C48" s="4"/>
@@ -7668,19 +7686,19 @@
       <c r="F48" s="43"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="28" t="s">
         <v>110</v>
       </c>
@@ -7689,7 +7707,7 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="28" t="s">
         <v>111</v>
       </c>
@@ -7698,12 +7716,12 @@
       </c>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="28">
       <c r="A54" s="85" t="s">
         <v>112</v>
       </c>
@@ -7713,27 +7731,27 @@
       </c>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="28">
       <c r="A55" s="85" t="s">
         <v>113</v>
       </c>
       <c r="B55" s="82">
         <f>IF(AND(B12&lt;=B51,(B4+B12)&gt;=B51),(B4+B12-B51)*B52,0)</f>
-        <v>28.65</v>
+        <v>0</v>
       </c>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B56" s="4">
         <f>SUM(B54:B55)</f>
-        <v>28.65</v>
+        <v>0</v>
       </c>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="28"/>
       <c r="B57" s="83"/>
       <c r="C57" s="4"/>
@@ -7741,7 +7759,7 @@
       <c r="F57" s="43"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -7751,7 +7769,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="B59" s="11"/>
       <c r="C59" t="s">
         <v>13</v>
@@ -7761,20 +7779,20 @@
       <c r="K59" s="4"/>
       <c r="L59" s="16"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="H60" s="35"/>
       <c r="I60" s="18"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="16"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="17">
         <f>IF(AND((B4-B56+B12)&gt;=B18,(B4-B56+B12)&lt;=C18),(B4-B56)*D18,IF(AND((B4-B56+B12)&gt;B19,(B4-B56+B12)&lt;=C19),IF((B4-B56+B12-B19)&gt;(B4-B56),(B4-B56)*D19,((B4-B56+B12-B19)*D19)+((B4-B56-(B4-B56+B12-B19))*D18)),IF(AND((B4-B56+B12)&gt;B20,(B4-B56+B12)&lt;=C20),IF((B4-B56+B12-B20)&gt;(B4-B56),(B4-B56)*D20,IF((B4-B56+B12-B19)&gt;(B4-B56),(((B4-B56+B12-B20)*D20)+((B4-B56-(B4-B56+B12-B20))*D19)),((B4-B56+B12-B20)*D20)+((C19-B19)*D19)+((B4-B56-(B4-B56+B12-B19))*D18))),IF(AND((B4-B56+B12)&gt;B21,(B4-B56+B12)&lt;=C21),IF((B4-B56+B12-B21)&gt;(B4-B56),(B4-B56)*D21,IF((B4-B56+B12-B20)&gt;(B4-B56),((B4-B56+B12-B21)*D21)+(((B4-B56-(B4-B56+B12-B21))*D20)),IF((B4-B56+B12-B19)&gt;(B4-B56),(((B4-B56+B12-B21)*D21)+((C20-B20)*D20)+((B4-B56-(B4-B56+B12-B20))*D19)),((B4-B56+B12-B21)*D21)+((C20-B20)*D20)+((C19-B19)*D19)+((B4-B56-(B4-B56+B12-B19))*D18)))),IF((B4-B56+B12)&gt;B22,IF((B4-B56+B12-B22)&gt;(B4-B56),(B4-B56)*D22,IF((B4-B56+B12-B21)&gt;(B4-B56),(((B4-B56+B12-B22)*D22)+((B4-B56-(B4-B56+B12-B22))*D21)),IF((B4-B56+B12-B20)&gt;(B4-B56),(((B4-B56+B12-B22)*D22)+((C21-B21)*D21)+((B4-B56-(B4-B56+B12-B21))*D20)),IF((B4-B56+B12-B19)&gt;(B4-B56),(((B4-B56+B12-B22)*D22)+((C21-B21)*D21)+((C20-B20)*D20)+((B4-B56-(B4-B56+B12-B20))*D19)),((B4-B56+B12-B22)*D22)+((C21-B21)*D21)+((C20-B20)*D20)+((C19-B19)*D19)+((B4-B56-(B4-B56+B12-B19))*D18))))))))))</f>
-        <v>199.12674999999999</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -7783,10 +7801,10 @@
       <c r="K61" s="4"/>
       <c r="L61" s="16"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="B62" s="36">
         <f>-IF(B12&gt;=B24,0,IF(B12&lt;B24,IF((B12+B4-B56)&gt;B24,(B24-B12)*D18,(B4-B56)*D18)))</f>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C62" t="s">
         <v>34</v>
@@ -7795,49 +7813,49 @@
       <c r="K62" s="4"/>
       <c r="L62" s="16"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="B63" s="12">
         <f>IF(AND((B4-B56+B12)&gt;=B28,(B4-B56+B12)&lt;=C28),(B4-B56)*D28,IF(AND((B4-B56+B12)&gt;B29,(B4-B56+B12)&lt;=C29),IF((B4-B56+B12-B29)&gt;(B4-B56),(B4-B56)*D29,((B4-B56+B12-B29)*D29)+((B4-B56-(B4-B56+B12-B29))*D28)),IF((B4-B56+B12)&gt;B30,IF((B4-B56+B12-B30)&gt;(B4-B56),(B4-B56)*D30,IF((B4-B56+B12-B29)&gt;(B4-B56),(((B4-B56+B12-B30)*D30)+((B4-B56-(B4-B56+B12-B30))*D29)),((B4-B56+B12-B30)*D30)+((C29-B29)*D29)+((B4-B56-(B4-B56+B12-B29))*D28))))))</f>
-        <v>169.01489999999998</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="B64" s="38">
         <f>-IF(B12&gt;=B32,0,IF(B12&lt;B32,IF((B12+B4-B56)&gt;B32,(B32-B12)*D28,(B4-B56)*D28)))</f>
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="C64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17">
       <c r="B65" s="38">
         <f>B47</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17">
       <c r="B66" s="86">
         <f>B56</f>
-        <v>28.65</v>
+        <v>0</v>
       </c>
       <c r="C66" s="87" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17">
       <c r="A67" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="44">
         <f>SUM(B61:B66)</f>
-        <v>396.79164999999995</v>
+        <v>10</v>
       </c>
       <c r="F67" s="46"/>
       <c r="G67" s="46"/>
@@ -7848,7 +7866,7 @@
       <c r="L67" s="47"/>
       <c r="M67" s="46"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17">
       <c r="E68" s="18"/>
       <c r="F68" s="48"/>
       <c r="G68" s="46"/>
@@ -7860,7 +7878,7 @@
       <c r="M68" s="46"/>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17">
       <c r="B69" s="13"/>
       <c r="F69" s="46"/>
       <c r="G69" s="46"/>
@@ -7871,7 +7889,7 @@
       <c r="L69" s="46"/>
       <c r="M69" s="46"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17">
       <c r="A70" s="19" t="s">
         <v>39</v>
       </c>
@@ -7885,13 +7903,13 @@
       <c r="L70" s="46"/>
       <c r="M70" s="46"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>117</v>
       </c>
       <c r="B71" s="13">
         <f>SUM(B61:B62)</f>
-        <v>199.12674999999999</v>
+        <v>0</v>
       </c>
       <c r="F71" s="46"/>
       <c r="G71" s="46"/>
@@ -7902,13 +7920,13 @@
       <c r="L71" s="46"/>
       <c r="M71" s="46"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>120</v>
       </c>
       <c r="B72" s="88">
         <f>SUM(B63:B64)</f>
-        <v>169.01489999999998</v>
+        <v>0</v>
       </c>
       <c r="F72" s="46"/>
       <c r="G72" s="46"/>
@@ -7919,13 +7937,13 @@
       <c r="L72" s="46"/>
       <c r="M72" s="46"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>121</v>
       </c>
       <c r="B73" s="88">
         <f>B65</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F73" s="46"/>
       <c r="G73" s="46"/>
@@ -7936,13 +7954,13 @@
       <c r="L73" s="46"/>
       <c r="M73" s="46"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17">
       <c r="A74" s="89" t="s">
         <v>109</v>
       </c>
       <c r="B74" s="90">
         <f>B66</f>
-        <v>28.65</v>
+        <v>0</v>
       </c>
       <c r="F74" s="46"/>
       <c r="G74" s="46"/>
@@ -7953,10 +7971,10 @@
       <c r="L74" s="46"/>
       <c r="M74" s="46"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17">
       <c r="B75" s="13">
         <f>SUM(B71:B74)</f>
-        <v>396.79164999999995</v>
+        <v>10</v>
       </c>
       <c r="F75" s="46"/>
       <c r="G75" s="46"/>
@@ -7967,7 +7985,7 @@
       <c r="L75" s="46"/>
       <c r="M75" s="46"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17">
       <c r="B76" s="13"/>
       <c r="F76" s="46"/>
       <c r="G76" s="46"/>
@@ -7978,7 +7996,7 @@
       <c r="L76" s="46"/>
       <c r="M76" s="46"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17">
       <c r="B77" s="13"/>
       <c r="F77" s="46"/>
       <c r="G77" s="46"/>
@@ -7989,7 +8007,7 @@
       <c r="L77" s="46"/>
       <c r="M77" s="46"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17">
       <c r="B78" s="13"/>
       <c r="F78" s="46"/>
       <c r="G78" s="46"/>
@@ -8000,7 +8018,7 @@
       <c r="L78" s="46"/>
       <c r="M78" s="46"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17">
       <c r="B79" s="13"/>
       <c r="F79" s="46"/>
       <c r="G79" s="46"/>
@@ -8011,7 +8029,7 @@
       <c r="L79" s="46"/>
       <c r="M79" s="46"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17">
       <c r="B80" s="15"/>
       <c r="F80" s="46"/>
       <c r="G80" s="46"/>
@@ -8022,7 +8040,7 @@
       <c r="L80" s="46"/>
       <c r="M80" s="46"/>
     </row>
-    <row r="81" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:13">
       <c r="F81" s="46"/>
       <c r="G81" s="46"/>
       <c r="H81" s="45"/>
@@ -8032,7 +8050,7 @@
       <c r="L81" s="46"/>
       <c r="M81" s="46"/>
     </row>
-    <row r="82" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:13">
       <c r="F82" s="46"/>
       <c r="G82" s="46"/>
       <c r="H82" s="45"/>
@@ -8042,7 +8060,7 @@
       <c r="L82" s="46"/>
       <c r="M82" s="46"/>
     </row>
-    <row r="83" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:13">
       <c r="F83" s="46"/>
       <c r="G83" s="46"/>
       <c r="H83" s="45"/>
@@ -8052,15 +8070,20 @@
       <c r="L83" s="46"/>
       <c r="M83" s="46"/>
     </row>
-    <row r="84" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:13">
       <c r="H84" s="12"/>
     </row>
-    <row r="86" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:13">
       <c r="H86" s="39"/>
       <c r="M86" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>